--- a/策划案/日本語を勉強/Q群翻译/N2文法句子.xlsx
+++ b/策划案/日本語を勉強/Q群翻译/N2文法句子.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOCUMENT\doc\DesignerDoc\策划案\日本語を勉強\Q群翻译\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB1B57C-69BD-4BC6-80A0-6AE7212D4E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5852BED-A981-4150-8F16-068BEF8C7B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1614,10 +1614,10 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomRight" activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
